--- a/data/sample_original.xlsx
+++ b/data/sample_original.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vscode\Web\robotframework-excelsage\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250AB02-B5C4-47EB-9B21-016E34525442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Offset_table" sheetId="2" r:id="rId2"/>
-    <sheet name="Invalid_header" sheetId="3" r:id="rId3"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Offset_table"/>
+    <sheet r:id="rId3" sheetId="3" name="Invalid_header"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -372,8 +366,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,12 +380,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -427,47 +416,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,10 +467,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -519,71 +508,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,7 +600,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -634,11 +623,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -647,13 +636,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -663,7 +652,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -672,7 +661,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -681,7 +670,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -689,10 +678,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -757,28 +746,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,11 +785,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="9"/>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -820,11 +809,12 @@
       <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6">
+      <c r="G2" s="9"/>
+      <c r="H2" s="3">
         <v>6574</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -843,11 +833,12 @@
       <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6">
+      <c r="G3" s="9"/>
+      <c r="H3" s="3">
         <v>5412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -866,11 +857,12 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6">
+      <c r="G4" s="9"/>
+      <c r="H4" s="3">
         <v>3259</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -889,11 +881,12 @@
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6">
+      <c r="G5" s="9"/>
+      <c r="H5" s="3">
         <v>1546</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -912,11 +905,12 @@
       <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="6">
+      <c r="G6" s="9"/>
+      <c r="H6" s="3">
         <v>2554</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -935,11 +929,12 @@
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6">
+      <c r="G7" s="9"/>
+      <c r="H7" s="3">
         <v>1582</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -958,11 +953,12 @@
       <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="6">
+      <c r="G8" s="9"/>
+      <c r="H8" s="3">
         <v>9536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -981,11 +977,12 @@
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6">
+      <c r="G9" s="9"/>
+      <c r="H9" s="3">
         <v>3549</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1004,11 +1001,12 @@
       <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="6">
+      <c r="G10" s="9"/>
+      <c r="H10" s="3">
         <v>6458</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1027,11 +1025,12 @@
       <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="6">
+      <c r="G11" s="9"/>
+      <c r="H11" s="3">
         <v>6540</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -1050,11 +1049,12 @@
       <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6">
+      <c r="G12" s="9"/>
+      <c r="H12" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1073,11 +1073,12 @@
       <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="6">
+      <c r="G13" s="9"/>
+      <c r="H13" s="3">
         <v>9654</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1096,11 +1097,12 @@
       <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="6">
+      <c r="G14" s="9"/>
+      <c r="H14" s="3">
         <v>2587</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -1119,11 +1121,12 @@
       <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="6">
+      <c r="G15" s="9"/>
+      <c r="H15" s="3">
         <v>2456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1142,11 +1145,12 @@
       <c r="F16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="6">
+      <c r="G16" s="9"/>
+      <c r="H16" s="3">
         <v>8642</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -1165,11 +1169,12 @@
       <c r="F17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="6">
+      <c r="G17" s="9"/>
+      <c r="H17" s="3">
         <v>5486</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -1188,11 +1193,12 @@
       <c r="F18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="9"/>
+      <c r="H18" s="3">
         <v>5555</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
@@ -1211,11 +1217,12 @@
       <c r="F19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="6">
+      <c r="G19" s="9"/>
+      <c r="H19" s="3">
         <v>6525</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -1234,11 +1241,12 @@
       <c r="F20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="6">
+      <c r="G20" s="9"/>
+      <c r="H20" s="3">
         <v>3264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -1257,11 +1265,12 @@
       <c r="F21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="6">
+      <c r="G21" s="9"/>
+      <c r="H21" s="3">
         <v>6597</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -1280,11 +1289,12 @@
       <c r="F22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="6">
+      <c r="G22" s="9"/>
+      <c r="H22" s="3">
         <v>6125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -1303,11 +1313,12 @@
       <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="6">
+      <c r="G23" s="9"/>
+      <c r="H23" s="3">
         <v>8563</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -1326,11 +1337,12 @@
       <c r="F24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="6">
+      <c r="G24" s="9"/>
+      <c r="H24" s="3">
         <v>6125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -1349,11 +1361,12 @@
       <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="6">
+      <c r="G25" s="9"/>
+      <c r="H25" s="3">
         <v>3259</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1372,11 +1385,12 @@
       <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="6">
+      <c r="G26" s="9"/>
+      <c r="H26" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -1395,11 +1409,12 @@
       <c r="F27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="6">
+      <c r="G27" s="9"/>
+      <c r="H27" s="3">
         <v>1562</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -1418,11 +1433,12 @@
       <c r="F28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="6">
+      <c r="G28" s="9"/>
+      <c r="H28" s="3">
         <v>3256</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -1441,11 +1457,12 @@
       <c r="F29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="6">
+      <c r="G29" s="9"/>
+      <c r="H29" s="3">
         <v>7521</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -1464,11 +1481,12 @@
       <c r="F30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="6">
+      <c r="G30" s="9"/>
+      <c r="H30" s="3">
         <v>2654</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
@@ -1487,11 +1505,12 @@
       <c r="F31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="6">
+      <c r="G31" s="9"/>
+      <c r="H31" s="3">
         <v>7569</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -1510,11 +1529,12 @@
       <c r="F32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="6">
+      <c r="G32" s="9"/>
+      <c r="H32" s="3">
         <v>2567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -1533,11 +1553,12 @@
       <c r="F33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="6">
+      <c r="G33" s="9"/>
+      <c r="H33" s="3">
         <v>2587</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
@@ -1556,11 +1577,12 @@
       <c r="F34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="6">
+      <c r="G34" s="9"/>
+      <c r="H34" s="3">
         <v>8514</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -1579,11 +1601,12 @@
       <c r="F35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="6">
+      <c r="G35" s="9"/>
+      <c r="H35" s="3">
         <v>4569</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -1602,11 +1625,12 @@
       <c r="F36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="6">
+      <c r="G36" s="9"/>
+      <c r="H36" s="3">
         <v>2154</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
@@ -1625,11 +1649,12 @@
       <c r="F37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="6">
+      <c r="G37" s="9"/>
+      <c r="H37" s="3">
         <v>2564</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1648,11 +1673,12 @@
       <c r="F38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="6">
+      <c r="G38" s="9"/>
+      <c r="H38" s="3">
         <v>8765</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="4" t="s">
         <v>89</v>
       </c>
@@ -1671,11 +1697,12 @@
       <c r="F39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="6">
+      <c r="G39" s="9"/>
+      <c r="H39" s="3">
         <v>2579</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
@@ -1694,11 +1721,12 @@
       <c r="F40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="6">
+      <c r="G40" s="9"/>
+      <c r="H40" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="4" t="s">
         <v>93</v>
       </c>
@@ -1717,11 +1745,12 @@
       <c r="F41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H41" s="6">
+      <c r="G41" s="9"/>
+      <c r="H41" s="3">
         <v>1258</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="4" t="s">
         <v>95</v>
       </c>
@@ -1740,11 +1769,12 @@
       <c r="F42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="6">
+      <c r="G42" s="9"/>
+      <c r="H42" s="3">
         <v>3579</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
@@ -1763,11 +1793,12 @@
       <c r="F43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="6">
+      <c r="G43" s="9"/>
+      <c r="H43" s="3">
         <v>3567</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="4" t="s">
         <v>99</v>
       </c>
@@ -1786,11 +1817,12 @@
       <c r="F44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H44" s="6">
+      <c r="G44" s="9"/>
+      <c r="H44" s="3">
         <v>6548</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="4" t="s">
         <v>101</v>
       </c>
@@ -1809,11 +1841,12 @@
       <c r="F45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="6">
+      <c r="G45" s="9"/>
+      <c r="H45" s="3">
         <v>3256</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4" t="s">
         <v>103</v>
       </c>
@@ -1832,11 +1865,12 @@
       <c r="F46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="6">
+      <c r="G46" s="9"/>
+      <c r="H46" s="3">
         <v>5489</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -1855,11 +1889,12 @@
       <c r="F47" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="6">
+      <c r="G47" s="9"/>
+      <c r="H47" s="3">
         <v>5489</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4" t="s">
         <v>107</v>
       </c>
@@ -1878,11 +1913,12 @@
       <c r="F48" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H48" s="6">
+      <c r="G48" s="9"/>
+      <c r="H48" s="3">
         <v>3569</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4" t="s">
         <v>109</v>
       </c>
@@ -1901,11 +1937,12 @@
       <c r="F49" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="6">
+      <c r="G49" s="9"/>
+      <c r="H49" s="3">
         <v>8561</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4" t="s">
         <v>111</v>
       </c>
@@ -1924,11 +1961,12 @@
       <c r="F50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="6">
+      <c r="G50" s="9"/>
+      <c r="H50" s="3">
         <v>3598</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4" t="s">
         <v>113</v>
       </c>
@@ -1947,7 +1985,8 @@
       <c r="F51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="6">
+      <c r="G51" s="9"/>
+      <c r="H51" s="3">
         <v>2468</v>
       </c>
     </row>
@@ -1957,69 +1996,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="D1:J58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="6"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2042,173 +2104,197 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3259</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H9" s="3">
         <v>39</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3">
         <v>1258</v>
       </c>
     </row>
-    <row r="8" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="6">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3">
+        <v>37</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2564</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3264</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="3">
+        <v>37</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="3">
         <v>32</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="6">
-        <v>25</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="6">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6">
-        <v>27</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="6">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="6">
-        <v>58</v>
-      </c>
       <c r="I13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="6">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>9</v>
@@ -2216,22 +2302,25 @@
       <c r="G14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="6">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>36</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="3">
+        <v>8514</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>14</v>
@@ -2239,114 +2328,129 @@
       <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>37</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8765</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="3">
+        <v>32</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="6">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="6">
-        <v>36</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2567</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="3">
+        <v>1562</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="6">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="H17" s="3">
+        <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2456</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3">
+        <v>56</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="6">
-        <v>2579</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="6">
-        <v>36</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="6">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="3">
+        <v>3598</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="6">
-        <v>26</v>
+      <c r="H19" s="3">
+        <v>28</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="6">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5486</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>14</v>
@@ -2354,201 +2458,228 @@
       <c r="G20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="6">
-        <v>34</v>
+      <c r="H20" s="3">
+        <v>28</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6525</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="6">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="21" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="6">
-        <v>32</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="6">
-        <v>3256</v>
-      </c>
-    </row>
-    <row r="22" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="3">
+        <v>5412</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>38</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2579</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="3">
         <v>41</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="I23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="3">
         <v>3256</v>
       </c>
     </row>
-    <row r="23" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="6">
-        <v>31</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="6">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="24" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3">
+        <v>24</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3">
+        <v>2554</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="3">
+        <v>52</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="3">
+        <v>8561</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3">
+        <v>39</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3">
+        <v>26</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3">
+        <v>6458</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="6">
-        <v>24</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="6">
-        <v>3259</v>
-      </c>
-    </row>
-    <row r="25" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="6">
-        <v>28</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="6">
-        <v>3264</v>
-      </c>
-    </row>
-    <row r="26" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="6">
-        <v>32</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="6">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="27" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="4" t="s">
+      <c r="H28" s="3">
         <v>35</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="6">
-        <v>26</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="6">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="28" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" s="6">
-        <v>39</v>
-      </c>
       <c r="I28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="6">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J28" s="3">
+        <v>7569</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4" t="s">
         <v>29</v>
       </c>
@@ -2561,45 +2692,51 @@
       <c r="G29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>25</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>3549</v>
       </c>
     </row>
-    <row r="30" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="6">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="H30" s="3">
+        <v>27</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="6">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="31" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="3">
+        <v>8642</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="4" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>14</v>
@@ -2607,45 +2744,51 @@
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="6">
-        <v>46</v>
+      <c r="H31" s="3">
+        <v>27</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J31" s="3">
+        <v>8642</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="4" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="6">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="H32" s="3">
+        <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3579</v>
-      </c>
-    </row>
-    <row r="33" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3259</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="4" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>14</v>
@@ -2653,45 +2796,51 @@
       <c r="G33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H33" s="6">
-        <v>56</v>
+      <c r="H33" s="3">
+        <v>28</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="34" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J33" s="3">
+        <v>6597</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="4" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="6">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <v>21</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="6">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="35" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="3">
+        <v>6574</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="4" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>14</v>
@@ -2699,491 +2848,571 @@
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
+        <v>42</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3">
+        <v>5489</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <v>26</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3">
+        <v>9654</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <v>26</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3">
+        <v>9654</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="6">
-        <v>5412</v>
-      </c>
-    </row>
-    <row r="36" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" s="4" t="s">
+      <c r="E38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="6">
-        <v>28</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="6">
-        <v>5486</v>
-      </c>
-    </row>
-    <row r="37" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" s="4" t="s">
+      <c r="H38" s="3">
         <v>25</v>
       </c>
-      <c r="H37" s="6">
-        <v>46</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="6">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="38" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="6">
-        <v>42</v>
-      </c>
       <c r="I38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="6">
-        <v>5489</v>
-      </c>
-    </row>
-    <row r="39" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1582</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
+        <v>26</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3">
+        <v>2587</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3">
         <v>28</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="I40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="3">
         <v>5555</v>
       </c>
     </row>
-    <row r="40" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="3">
+        <v>29</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8563</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="3">
+        <v>58</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2468</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <v>36</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2587</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="6">
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="3">
         <v>29</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="I44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="3">
         <v>6125</v>
       </c>
     </row>
-    <row r="41" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" s="6">
-        <v>29</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="6">
-        <v>6125</v>
-      </c>
-    </row>
-    <row r="42" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="3">
+        <v>34</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2654</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="3">
+        <v>25</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9536</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="3">
+        <v>36</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2567</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3">
+        <v>39</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3579</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3">
+        <v>24</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1546</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" s="3">
         <v>32</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="I50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="3">
+        <v>3256</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="6">
-        <v>26</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="6">
-        <v>6458</v>
-      </c>
-    </row>
-    <row r="43" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="6">
-        <v>28</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="6">
-        <v>6525</v>
-      </c>
-    </row>
-    <row r="44" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="H51" s="3">
         <v>34</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="I51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="3">
+        <v>7521</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
+        <v>46</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3569</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" s="6">
-        <v>26</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="6">
-        <v>6540</v>
-      </c>
-    </row>
-    <row r="45" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="6">
-        <v>40</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="6">
-        <v>6548</v>
-      </c>
-    </row>
-    <row r="46" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="6">
-        <v>21</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="6">
-        <v>6574</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" s="4" t="s">
+      <c r="G53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" s="3">
+        <v>26</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" s="3">
+        <v>3265</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="6">
-        <v>28</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="6">
-        <v>6597</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="6">
-        <v>34</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="6">
-        <v>7521</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="6">
-        <v>35</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="6">
-        <v>7569</v>
-      </c>
-    </row>
-    <row r="51" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="6">
-        <v>36</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="6">
-        <v>8514</v>
-      </c>
-    </row>
-    <row r="52" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" s="6">
-        <v>52</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J52" s="6">
-        <v>8561</v>
-      </c>
-    </row>
-    <row r="53" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="4" t="s">
+      <c r="H54" s="3">
         <v>37</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H53" s="6">
-        <v>26</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="6">
-        <v>9654</v>
-      </c>
-    </row>
-    <row r="54" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" s="6">
-        <v>29</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J54" s="6">
-        <v>8563</v>
-      </c>
-    </row>
-    <row r="55" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="3">
+        <v>4569</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="6">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="H55" s="3">
+        <v>40</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="6">
-        <v>8642</v>
-      </c>
-    </row>
-    <row r="56" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J55" s="3">
+        <v>6548</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="6">
-        <v>37</v>
+      <c r="H56" s="3">
+        <v>26</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="6">
-        <v>8765</v>
-      </c>
-    </row>
-    <row r="57" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="3">
+        <v>6540</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>14</v>
@@ -3191,38 +3420,27 @@
       <c r="G57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="6">
-        <v>25</v>
+      <c r="H57" s="3">
+        <v>39</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="6">
-        <v>9536</v>
-      </c>
-    </row>
-    <row r="58" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="6">
-        <v>26</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="6">
-        <v>9654</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3567</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3230,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -3238,16 +3456,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="5.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3295,11 +3516,11 @@
       <c r="G2" s="3">
         <v>1235</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>6574</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3321,11 +3542,11 @@
       <c r="G3" s="3">
         <v>1236</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>5412</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3347,11 +3568,11 @@
       <c r="G4" s="3">
         <v>1237</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>3259</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3373,11 +3594,11 @@
       <c r="G5" s="3">
         <v>1238</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>1546</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -3399,11 +3620,11 @@
       <c r="G6" s="3">
         <v>1239</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>2554</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -3425,11 +3646,11 @@
       <c r="G7" s="3">
         <v>1240</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>1582</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3451,11 +3672,11 @@
       <c r="G8" s="3">
         <v>1241</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>9536</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -3477,11 +3698,11 @@
       <c r="G9" s="3">
         <v>1242</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>3549</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3503,11 +3724,11 @@
       <c r="G10" s="3">
         <v>1243</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="3">
         <v>6458</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3529,11 +3750,11 @@
       <c r="G11" s="3">
         <v>1244</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="3">
         <v>6540</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3555,11 +3776,11 @@
       <c r="G12" s="3">
         <v>1245</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3581,11 +3802,11 @@
       <c r="G13" s="3">
         <v>1246</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>9654</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
@@ -3607,11 +3828,11 @@
       <c r="G14" s="3">
         <v>1247</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>2587</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -3633,11 +3854,11 @@
       <c r="G15" s="3">
         <v>1248</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>2456</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -3659,11 +3880,11 @@
       <c r="G16" s="3">
         <v>1249</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>8642</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -3685,11 +3906,11 @@
       <c r="G17" s="3">
         <v>1250</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>5486</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
@@ -3711,11 +3932,11 @@
       <c r="G18" s="3">
         <v>1251</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>5555</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -3737,11 +3958,11 @@
       <c r="G19" s="3">
         <v>1252</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>6525</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4" t="s">
         <v>51</v>
       </c>
@@ -3763,11 +3984,11 @@
       <c r="G20" s="3">
         <v>1253</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="3">
         <v>3264</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4" t="s">
         <v>53</v>
       </c>
@@ -3789,11 +4010,11 @@
       <c r="G21" s="3">
         <v>1254</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>6597</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -3815,11 +4036,11 @@
       <c r="G22" s="3">
         <v>1255</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>6125</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -3841,11 +4062,11 @@
       <c r="G23" s="3">
         <v>1256</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>8563</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -3867,11 +4088,11 @@
       <c r="G24" s="3">
         <v>1257</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>6125</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -3893,11 +4114,11 @@
       <c r="G25" s="3">
         <v>1258</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <v>3259</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -3919,11 +4140,11 @@
       <c r="G26" s="3">
         <v>1259</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
@@ -3945,11 +4166,11 @@
       <c r="G27" s="3">
         <v>1260</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>1562</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
@@ -3971,11 +4192,11 @@
       <c r="G28" s="3">
         <v>1261</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>3256</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3997,11 +4218,11 @@
       <c r="G29" s="3">
         <v>1262</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>7521</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4" t="s">
         <v>71</v>
       </c>
@@ -4023,11 +4244,11 @@
       <c r="G30" s="3">
         <v>1263</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>2654</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4" t="s">
         <v>73</v>
       </c>
@@ -4049,11 +4270,11 @@
       <c r="G31" s="3">
         <v>1264</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>7569</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4" t="s">
         <v>75</v>
       </c>
@@ -4075,11 +4296,11 @@
       <c r="G32" s="3">
         <v>1265</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>2567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4" t="s">
         <v>77</v>
       </c>
@@ -4101,11 +4322,11 @@
       <c r="G33" s="3">
         <v>1266</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <v>2587</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4" t="s">
         <v>79</v>
       </c>
@@ -4127,11 +4348,11 @@
       <c r="G34" s="3">
         <v>1267</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <v>8514</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4" t="s">
         <v>81</v>
       </c>
@@ -4153,11 +4374,11 @@
       <c r="G35" s="3">
         <v>1268</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="3">
         <v>4569</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4" t="s">
         <v>83</v>
       </c>
@@ -4179,11 +4400,11 @@
       <c r="G36" s="3">
         <v>1269</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="3">
         <v>2154</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4" t="s">
         <v>85</v>
       </c>
@@ -4205,11 +4426,11 @@
       <c r="G37" s="3">
         <v>1270</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="3">
         <v>2564</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -4231,11 +4452,11 @@
       <c r="G38" s="3">
         <v>1271</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="3">
         <v>8765</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4" t="s">
         <v>89</v>
       </c>
@@ -4257,11 +4478,11 @@
       <c r="G39" s="3">
         <v>1272</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="3">
         <v>2579</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4" t="s">
         <v>91</v>
       </c>
@@ -4283,11 +4504,11 @@
       <c r="G40" s="3">
         <v>1273</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="3">
         <v>3265</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4" t="s">
         <v>93</v>
       </c>
@@ -4309,11 +4530,11 @@
       <c r="G41" s="3">
         <v>1274</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="3">
         <v>1258</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4" t="s">
         <v>95</v>
       </c>
@@ -4335,11 +4556,11 @@
       <c r="G42" s="3">
         <v>1275</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="3">
         <v>3579</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4" t="s">
         <v>97</v>
       </c>
@@ -4361,11 +4582,11 @@
       <c r="G43" s="3">
         <v>1276</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="3">
         <v>3567</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4" t="s">
         <v>99</v>
       </c>
@@ -4387,11 +4608,11 @@
       <c r="G44" s="3">
         <v>1277</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="3">
         <v>6548</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4" t="s">
         <v>101</v>
       </c>
@@ -4413,11 +4634,11 @@
       <c r="G45" s="3">
         <v>1278</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="3">
         <v>3256</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4" t="s">
         <v>103</v>
       </c>
@@ -4439,11 +4660,11 @@
       <c r="G46" s="3">
         <v>1279</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="3">
         <v>5489</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4" t="s">
         <v>105</v>
       </c>
@@ -4465,11 +4686,11 @@
       <c r="G47" s="3">
         <v>1280</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="3">
         <v>5489</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4" t="s">
         <v>107</v>
       </c>
@@ -4491,11 +4712,11 @@
       <c r="G48" s="3">
         <v>1281</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="3">
         <v>3569</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4" t="s">
         <v>109</v>
       </c>
@@ -4517,11 +4738,11 @@
       <c r="G49" s="3">
         <v>1282</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="3">
         <v>8561</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4" t="s">
         <v>111</v>
       </c>
@@ -4543,11 +4764,11 @@
       <c r="G50" s="3">
         <v>1283</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="3">
         <v>3598</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4" t="s">
         <v>113</v>
       </c>
@@ -4569,7 +4790,7 @@
       <c r="G51" s="3">
         <v>1284</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="3">
         <v>2468</v>
       </c>
     </row>
